--- a/teaching/traditional_assets/database/data/romania/romania_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_insurance_general.xlsx
@@ -590,41 +590,47 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.0762</v>
+      </c>
+      <c r="E2">
+        <v>0.131</v>
+      </c>
       <c r="G2">
-        <v>0.073125</v>
+        <v>0.0712707182320442</v>
       </c>
       <c r="H2">
-        <v>0.073125</v>
+        <v>0.0712707182320442</v>
       </c>
       <c r="I2">
-        <v>0.06937500000000001</v>
+        <v>0.08176795580110496</v>
       </c>
       <c r="J2">
-        <v>0.05940598739495798</v>
+        <v>0.07158867967076334</v>
       </c>
       <c r="K2">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="L2">
-        <v>0.06375</v>
+        <v>0.07071823204419889</v>
       </c>
       <c r="M2">
-        <v>0.735</v>
+        <v>0.915</v>
       </c>
       <c r="N2">
-        <v>0.08834134615384615</v>
+        <v>0.06727941176470589</v>
       </c>
       <c r="O2">
-        <v>0.7205882352941176</v>
+        <v>0.71484375</v>
       </c>
       <c r="P2">
-        <v>0.735</v>
+        <v>0.915</v>
       </c>
       <c r="Q2">
-        <v>0.08834134615384615</v>
+        <v>0.06727941176470589</v>
       </c>
       <c r="R2">
-        <v>0.7205882352941176</v>
+        <v>0.71484375</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.877</v>
+        <v>1.58</v>
       </c>
       <c r="V2">
-        <v>0.1054086538461538</v>
+        <v>0.1161764705882353</v>
       </c>
       <c r="W2">
-        <v>1.169724770642202</v>
+        <v>1.174311926605504</v>
       </c>
       <c r="X2">
-        <v>0.0598166830984332</v>
+        <v>0.05529453638342827</v>
       </c>
       <c r="Y2">
-        <v>1.109908087543769</v>
+        <v>1.119017390222076</v>
       </c>
       <c r="Z2">
-        <v>313.7254901960782</v>
+        <v>36.2</v>
       </c>
       <c r="AA2">
-        <v>18.63717251606523</v>
+        <v>2.591510204081633</v>
       </c>
       <c r="AB2">
-        <v>0.0591274818961697</v>
+        <v>0.05487765993591989</v>
       </c>
       <c r="AC2">
-        <v>18.57804503416907</v>
+        <v>2.536632544145713</v>
       </c>
       <c r="AD2">
-        <v>0.287</v>
+        <v>0.253</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.287</v>
+        <v>0.253</v>
       </c>
       <c r="AG2">
-        <v>-0.5900000000000001</v>
+        <v>-1.327</v>
       </c>
       <c r="AH2">
-        <v>0.03334495178343208</v>
+        <v>0.01826319208835631</v>
       </c>
       <c r="AI2">
-        <v>0.2084241103848947</v>
+        <v>0.1435053885422575</v>
       </c>
       <c r="AJ2">
-        <v>-0.07632600258732213</v>
+        <v>-0.1081235231809664</v>
       </c>
       <c r="AK2">
-        <v>-1.18</v>
+        <v>-7.251366120218577</v>
       </c>
       <c r="AL2">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="AM2">
-        <v>0.003999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="AN2">
-        <v>0.2585585585585585</v>
+        <v>0.1675496688741722</v>
       </c>
       <c r="AO2">
-        <v>100.9090909090909</v>
+        <v>105.7142857142857</v>
       </c>
       <c r="AP2">
-        <v>-0.5315315315315315</v>
+        <v>-0.8788079470198675</v>
       </c>
       <c r="AQ2">
-        <v>277.5000000000001</v>
+        <v>246.6666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -718,41 +724,47 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0762</v>
+      </c>
+      <c r="E3">
+        <v>0.131</v>
+      </c>
       <c r="G3">
-        <v>0.073125</v>
+        <v>0.0712707182320442</v>
       </c>
       <c r="H3">
-        <v>0.073125</v>
+        <v>0.0712707182320442</v>
       </c>
       <c r="I3">
-        <v>0.06937500000000001</v>
+        <v>0.08176795580110496</v>
       </c>
       <c r="J3">
-        <v>0.05940598739495798</v>
+        <v>0.07158867967076334</v>
       </c>
       <c r="K3">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="L3">
-        <v>0.06375</v>
+        <v>0.07071823204419889</v>
       </c>
       <c r="M3">
-        <v>0.735</v>
+        <v>0.915</v>
       </c>
       <c r="N3">
-        <v>0.08834134615384615</v>
+        <v>0.06727941176470589</v>
       </c>
       <c r="O3">
-        <v>0.7205882352941176</v>
+        <v>0.71484375</v>
       </c>
       <c r="P3">
-        <v>0.735</v>
+        <v>0.915</v>
       </c>
       <c r="Q3">
-        <v>0.08834134615384615</v>
+        <v>0.06727941176470589</v>
       </c>
       <c r="R3">
-        <v>0.7205882352941176</v>
+        <v>0.71484375</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.877</v>
+        <v>1.58</v>
       </c>
       <c r="V3">
-        <v>0.1054086538461538</v>
+        <v>0.1161764705882353</v>
       </c>
       <c r="W3">
-        <v>1.169724770642202</v>
+        <v>1.174311926605504</v>
       </c>
       <c r="X3">
-        <v>0.0598166830984332</v>
+        <v>0.05529453638342827</v>
       </c>
       <c r="Y3">
-        <v>1.109908087543769</v>
+        <v>1.119017390222076</v>
       </c>
       <c r="Z3">
-        <v>313.7254901960782</v>
+        <v>36.2</v>
       </c>
       <c r="AA3">
-        <v>18.63717251606523</v>
+        <v>2.591510204081633</v>
       </c>
       <c r="AB3">
-        <v>0.0591274818961697</v>
+        <v>0.05487765993591989</v>
       </c>
       <c r="AC3">
-        <v>18.57804503416907</v>
+        <v>2.536632544145713</v>
       </c>
       <c r="AD3">
-        <v>0.287</v>
+        <v>0.253</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.287</v>
+        <v>0.253</v>
       </c>
       <c r="AG3">
-        <v>-0.5900000000000001</v>
+        <v>-1.327</v>
       </c>
       <c r="AH3">
-        <v>0.03334495178343208</v>
+        <v>0.01826319208835631</v>
       </c>
       <c r="AI3">
-        <v>0.2084241103848947</v>
+        <v>0.1435053885422575</v>
       </c>
       <c r="AJ3">
-        <v>-0.07632600258732213</v>
+        <v>-0.1081235231809664</v>
       </c>
       <c r="AK3">
-        <v>-1.18</v>
+        <v>-7.251366120218577</v>
       </c>
       <c r="AL3">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="AM3">
-        <v>0.003999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="AN3">
-        <v>0.2585585585585585</v>
+        <v>0.1675496688741722</v>
       </c>
       <c r="AO3">
-        <v>100.9090909090909</v>
+        <v>105.7142857142857</v>
       </c>
       <c r="AP3">
-        <v>-0.5315315315315315</v>
+        <v>-0.8788079470198675</v>
       </c>
       <c r="AQ3">
-        <v>277.5000000000001</v>
+        <v>246.6666666666667</v>
       </c>
     </row>
   </sheetData>
